--- a/IT2R_CAN.xlsx
+++ b/IT2R_CAN.xlsx
@@ -53,9 +53,6 @@
     <t>GPS : 0x004</t>
   </si>
   <si>
-    <t>Ultra-son arrière : 0x005</t>
-  </si>
-  <si>
     <t>Ultra-son avant : 0x002</t>
   </si>
   <si>
@@ -107,10 +104,33 @@
     <t>Trie des données en fonction des ids : OK</t>
   </si>
   <si>
-    <t>BUS CAN : Trier les données en fonction des ids (traitement différent en fonction</t>
-  </si>
-  <si>
-    <t>Second temps : ajout des différens services dans le programme de reception (threads associés</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Second temps :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ajout des différens services dans le programme de reception (threads associés</t>
+    </r>
+  </si>
+  <si>
+    <t>Ultra-son arrière : 0x005 ??</t>
+  </si>
+  <si>
+    <t>BUS CAN : Traitement différent en fonction des ids associés à l'envoie + récupération DATA</t>
   </si>
 </sst>
 </file>
@@ -500,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +538,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -526,7 +546,7 @@
     </row>
     <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -535,7 +555,7 @@
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -543,7 +563,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -562,11 +582,11 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>12</v>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -574,12 +594,12 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -587,72 +607,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
